--- a/individual_results/avey/336.xlsx
+++ b/individual_results/avey/336.xlsx
@@ -537,7 +537,7 @@
         <v>0.25</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0.5</v>
@@ -626,9 +626,7 @@
       <c r="K4" t="n">
         <v>0.4</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -670,9 +668,7 @@
       <c r="K5" t="n">
         <v>0.625</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>0.5555555555555556</v>
       </c>
@@ -717,7 +713,7 @@
         <v>0.6885288809404666</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1377057761880933</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0.8262346571285599</v>
